--- a/DA PORTAL.xlsx
+++ b/DA PORTAL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="PERSONAL INFORMATION" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4548" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4648" uniqueCount="716">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -2915,8 +2915,8 @@
   </sheetPr>
   <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A226" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I239" activeCellId="0" sqref="I239"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A224" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A135" activeCellId="0" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13474,8 +13474,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A221" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A198" activeCellId="0" sqref="A198"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D95" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D151" activeCellId="0" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17466,8 +17466,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A232" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A224" activeCellId="0" sqref="A224"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D113" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F269" activeCellId="0" sqref="F269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21677,49 +21677,52 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="32" t="s">
+      <c r="A135" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B135" s="32" t="s">
         <v>408</v>
       </c>
-      <c r="B135" s="38" t="s">
+      <c r="C135" s="38" t="s">
         <v>697</v>
       </c>
-      <c r="C135" s="34" t="n">
+      <c r="D135" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="D135" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="E135" s="15" t="n">
         <v>7</v>
       </c>
       <c r="F135" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G135" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H135" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I135" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="I135" s="34" t="s">
+      <c r="J135" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="32" t="s">
+      <c r="A136" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="B136" s="32" t="s">
         <v>413</v>
       </c>
-      <c r="B136" s="39" t="s">
+      <c r="C136" s="39" t="s">
         <v>711</v>
       </c>
-      <c r="C136" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="D136" s="15" t="n">
-        <v>7</v>
+      <c r="D136" s="34" t="n">
+        <v>5</v>
       </c>
       <c r="E136" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F136" s="15" t="n">
         <v>5</v>
@@ -21728,53 +21731,59 @@
         <v>5</v>
       </c>
       <c r="H136" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I136" s="15" t="n">
         <v>34</v>
       </c>
-      <c r="I136" s="34" t="s">
+      <c r="J136" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="32" t="s">
+      <c r="A137" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="B137" s="32" t="s">
         <v>416</v>
       </c>
-      <c r="B137" s="38" t="s">
+      <c r="C137" s="38" t="s">
         <v>708</v>
       </c>
-      <c r="C137" s="34" t="n">
+      <c r="D137" s="34" t="n">
         <v>6</v>
-      </c>
-      <c r="D137" s="15" t="n">
-        <v>8</v>
       </c>
       <c r="E137" s="15" t="n">
         <v>8</v>
       </c>
       <c r="F137" s="15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G137" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H137" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I137" s="15" t="n">
         <v>38</v>
       </c>
-      <c r="I137" s="34" t="s">
+      <c r="J137" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="32" t="s">
+      <c r="A138" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="B138" s="32" t="s">
         <v>418</v>
       </c>
-      <c r="B138" s="39" t="s">
+      <c r="C138" s="39" t="s">
         <v>705</v>
       </c>
-      <c r="C138" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="D138" s="15" t="n">
-        <v>8</v>
+      <c r="D138" s="34" t="n">
+        <v>5</v>
       </c>
       <c r="E138" s="15" t="n">
         <v>8</v>
@@ -21786,401 +21795,443 @@
         <v>8</v>
       </c>
       <c r="H138" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="I138" s="15" t="n">
         <v>42</v>
       </c>
-      <c r="I138" s="34" t="s">
+      <c r="J138" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="32" t="s">
+      <c r="A139" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B139" s="32" t="s">
         <v>421</v>
       </c>
-      <c r="B139" s="38" t="s">
+      <c r="C139" s="38" t="s">
         <v>699</v>
       </c>
-      <c r="C139" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="D139" s="15" t="n">
+      <c r="D139" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E139" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="E139" s="15" t="n">
+      <c r="F139" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="F139" s="15" t="n">
-        <v>5</v>
-      </c>
       <c r="G139" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H139" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I139" s="15" t="n">
         <v>37</v>
       </c>
-      <c r="I139" s="34" t="s">
+      <c r="J139" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="32" t="s">
+      <c r="A140" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="B140" s="32" t="s">
         <v>424</v>
       </c>
-      <c r="B140" s="39" t="s">
+      <c r="C140" s="39" t="s">
         <v>699</v>
       </c>
-      <c r="C140" s="34" t="n">
+      <c r="D140" s="34" t="n">
         <v>8</v>
       </c>
-      <c r="D140" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="E140" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F140" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="F140" s="15" t="n">
-        <v>5</v>
-      </c>
       <c r="G140" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H140" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I140" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="I140" s="34" t="s">
+      <c r="J140" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="32" t="s">
+      <c r="A141" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="B141" s="32" t="s">
         <v>427</v>
       </c>
-      <c r="B141" s="39" t="s">
+      <c r="C141" s="39" t="s">
         <v>696</v>
       </c>
-      <c r="C141" s="34" t="n">
+      <c r="D141" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="D141" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="E141" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F141" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="F141" s="15" t="n">
+      <c r="G141" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="G141" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="H141" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="I141" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="I141" s="34" t="s">
+      <c r="J141" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="32" t="s">
+      <c r="A142" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="B142" s="32" t="s">
         <v>429</v>
       </c>
-      <c r="B142" s="39" t="s">
+      <c r="C142" s="39" t="s">
         <v>708</v>
       </c>
-      <c r="C142" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="D142" s="15" t="n">
+      <c r="D142" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E142" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="E142" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="F142" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G142" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H142" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I142" s="15" t="n">
         <v>33</v>
       </c>
-      <c r="I142" s="34" t="s">
+      <c r="J142" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="32" t="s">
+      <c r="A143" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="B143" s="32" t="s">
         <v>433</v>
       </c>
-      <c r="B143" s="38" t="s">
+      <c r="C143" s="38" t="s">
         <v>710</v>
       </c>
-      <c r="C143" s="34" t="n">
+      <c r="D143" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="D143" s="15" t="n">
+      <c r="E143" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="E143" s="15" t="n">
+      <c r="F143" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="F143" s="15" t="n">
-        <v>5</v>
-      </c>
       <c r="G143" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H143" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I143" s="15" t="n">
         <v>36</v>
       </c>
-      <c r="I143" s="34" t="s">
+      <c r="J143" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="32" t="s">
+      <c r="A144" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="B144" s="32" t="s">
         <v>436</v>
       </c>
-      <c r="B144" s="38" t="s">
+      <c r="C144" s="38" t="s">
         <v>709</v>
       </c>
-      <c r="C144" s="34" t="n">
+      <c r="D144" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="D144" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="E144" s="15" t="n">
         <v>7</v>
       </c>
       <c r="F144" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G144" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H144" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I144" s="15" t="n">
         <v>33</v>
       </c>
-      <c r="I144" s="34" t="s">
+      <c r="J144" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="32" t="s">
+      <c r="A145" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="B145" s="32" t="s">
         <v>438</v>
       </c>
-      <c r="B145" s="39" t="s">
+      <c r="C145" s="39" t="s">
         <v>706</v>
       </c>
-      <c r="C145" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="D145" s="15" t="n">
-        <v>8</v>
+      <c r="D145" s="34" t="n">
+        <v>5</v>
       </c>
       <c r="E145" s="15" t="n">
         <v>8</v>
       </c>
       <c r="F145" s="15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G145" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H145" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I145" s="15" t="n">
         <v>37</v>
       </c>
-      <c r="I145" s="34" t="s">
+      <c r="J145" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="32" t="s">
+      <c r="A146" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="B146" s="32" t="s">
         <v>440</v>
       </c>
-      <c r="B146" s="39" t="s">
+      <c r="C146" s="39" t="s">
         <v>713</v>
       </c>
-      <c r="C146" s="34" t="n">
+      <c r="D146" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="D146" s="15" t="n">
+      <c r="E146" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="E146" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="F146" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G146" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H146" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I146" s="15" t="n">
         <v>36</v>
       </c>
-      <c r="I146" s="34" t="s">
+      <c r="J146" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="32" t="s">
+      <c r="A147" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="B147" s="32" t="s">
         <v>443</v>
       </c>
-      <c r="B147" s="38" t="s">
+      <c r="C147" s="38" t="s">
         <v>712</v>
       </c>
-      <c r="C147" s="34" t="n">
+      <c r="D147" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="D147" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="E147" s="15" t="n">
         <v>7</v>
       </c>
       <c r="F147" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G147" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H147" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I147" s="15" t="n">
         <v>36</v>
       </c>
-      <c r="I147" s="34" t="s">
+      <c r="J147" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="32" t="s">
+      <c r="A148" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="B148" s="32" t="s">
         <v>446</v>
       </c>
-      <c r="B148" s="39" t="s">
+      <c r="C148" s="39" t="s">
         <v>711</v>
       </c>
-      <c r="C148" s="34" t="n">
+      <c r="D148" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="D148" s="15" t="n">
+      <c r="E148" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="E148" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="F148" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G148" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H148" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I148" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="I148" s="34" t="s">
+      <c r="J148" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="32" t="s">
+      <c r="A149" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="B149" s="32" t="s">
         <v>449</v>
       </c>
-      <c r="B149" s="39" t="s">
+      <c r="C149" s="39" t="s">
         <v>697</v>
       </c>
-      <c r="C149" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="D149" s="15" t="n">
-        <v>7</v>
+      <c r="D149" s="34" t="n">
+        <v>5</v>
       </c>
       <c r="E149" s="15" t="n">
         <v>7</v>
       </c>
       <c r="F149" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G149" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H149" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I149" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="I149" s="34" t="s">
+      <c r="J149" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="32" t="s">
+      <c r="A150" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="B150" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="B150" s="38" t="s">
+      <c r="C150" s="38" t="s">
         <v>707</v>
       </c>
-      <c r="C150" s="34" t="n">
+      <c r="D150" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="D150" s="15" t="n">
+      <c r="E150" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="E150" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="F150" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G150" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H150" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I150" s="15" t="n">
         <v>34</v>
       </c>
-      <c r="I150" s="34" t="s">
+      <c r="J150" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="32" t="s">
+      <c r="A151" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="B151" s="32" t="s">
         <v>454</v>
       </c>
-      <c r="B151" s="38" t="s">
+      <c r="C151" s="38" t="s">
         <v>711</v>
       </c>
-      <c r="C151" s="34" t="n">
-        <v>7</v>
-      </c>
-      <c r="D151" s="15" t="n">
+      <c r="D151" s="34" t="n">
         <v>7</v>
       </c>
       <c r="E151" s="15" t="n">
         <v>7</v>
       </c>
       <c r="F151" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G151" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H151" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I151" s="15" t="n">
         <v>36</v>
       </c>
-      <c r="I151" s="34" t="s">
+      <c r="J151" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="32" t="s">
+      <c r="A152" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="B152" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="B152" s="39" t="s">
+      <c r="C152" s="39" t="s">
         <v>707</v>
       </c>
-      <c r="C152" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="D152" s="15" t="n">
-        <v>7</v>
+      <c r="D152" s="34" t="n">
+        <v>5</v>
       </c>
       <c r="E152" s="15" t="n">
         <v>7</v>
@@ -22189,781 +22240,862 @@
         <v>7</v>
       </c>
       <c r="G152" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H152" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I152" s="15" t="n">
         <v>37</v>
       </c>
-      <c r="I152" s="34" t="s">
+      <c r="J152" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="32" t="s">
+      <c r="A153" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="B153" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="B153" s="39" t="s">
+      <c r="C153" s="39" t="s">
         <v>699</v>
       </c>
-      <c r="C153" s="34" t="n">
+      <c r="D153" s="34" t="n">
         <v>6</v>
-      </c>
-      <c r="D153" s="15" t="n">
-        <v>8</v>
       </c>
       <c r="E153" s="15" t="n">
         <v>8</v>
       </c>
       <c r="F153" s="15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G153" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H153" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I153" s="15" t="n">
         <v>39</v>
       </c>
-      <c r="I153" s="34" t="s">
+      <c r="J153" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="32" t="s">
+      <c r="A154" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="B154" s="32" t="s">
         <v>463</v>
       </c>
-      <c r="B154" s="38" t="s">
+      <c r="C154" s="38" t="s">
         <v>699</v>
       </c>
-      <c r="C154" s="34" t="n">
+      <c r="D154" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="D154" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="E154" s="15" t="n">
         <v>7</v>
       </c>
       <c r="F154" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G154" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H154" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I154" s="15" t="n">
         <v>34</v>
       </c>
-      <c r="I154" s="34" t="s">
+      <c r="J154" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="32" t="s">
+      <c r="A155" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="B155" s="32" t="s">
         <v>465</v>
       </c>
-      <c r="B155" s="39" t="s">
+      <c r="C155" s="39" t="s">
         <v>698</v>
       </c>
-      <c r="C155" s="34" t="n">
-        <v>8</v>
-      </c>
-      <c r="D155" s="15" t="n">
+      <c r="D155" s="34" t="n">
         <v>8</v>
       </c>
       <c r="E155" s="15" t="n">
         <v>8</v>
       </c>
       <c r="F155" s="15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G155" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H155" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="H155" s="15" t="n">
+      <c r="I155" s="15" t="n">
         <v>44</v>
       </c>
-      <c r="I155" s="34" t="s">
+      <c r="J155" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="32" t="s">
+      <c r="A156" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="B156" s="32" t="s">
         <v>467</v>
       </c>
-      <c r="B156" s="39" t="s">
+      <c r="C156" s="39" t="s">
         <v>712</v>
       </c>
-      <c r="C156" s="34" t="n">
+      <c r="D156" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="D156" s="15" t="n">
+      <c r="E156" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="E156" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="F156" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="G156" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="G156" s="15" t="n">
+      <c r="H156" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="H156" s="15" t="n">
+      <c r="I156" s="15" t="n">
         <v>42</v>
       </c>
-      <c r="I156" s="34" t="s">
+      <c r="J156" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="32" t="s">
+      <c r="A157" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="B157" s="32" t="s">
         <v>470</v>
       </c>
-      <c r="B157" s="39" t="s">
+      <c r="C157" s="39" t="s">
         <v>704</v>
       </c>
-      <c r="C157" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="D157" s="15" t="n">
-        <v>7</v>
+      <c r="D157" s="34" t="n">
+        <v>5</v>
       </c>
       <c r="E157" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F157" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="F157" s="15" t="n">
-        <v>5</v>
-      </c>
       <c r="G157" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H157" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I157" s="15" t="n">
         <v>37</v>
       </c>
-      <c r="I157" s="34" t="s">
+      <c r="J157" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="32" t="s">
+      <c r="A158" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="B158" s="32" t="s">
         <v>473</v>
       </c>
-      <c r="B158" s="38" t="s">
+      <c r="C158" s="38" t="s">
         <v>696</v>
       </c>
-      <c r="C158" s="34" t="n">
+      <c r="D158" s="34" t="n">
         <v>8</v>
       </c>
-      <c r="D158" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="E158" s="15" t="n">
         <v>7</v>
       </c>
       <c r="F158" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G158" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H158" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I158" s="15" t="n">
         <v>39</v>
       </c>
-      <c r="I158" s="34" t="s">
+      <c r="J158" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="32" t="s">
+      <c r="A159" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="B159" s="32" t="s">
         <v>476</v>
       </c>
-      <c r="B159" s="39" t="s">
+      <c r="C159" s="39" t="s">
         <v>702</v>
       </c>
-      <c r="C159" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="D159" s="15" t="n">
-        <v>7</v>
+      <c r="D159" s="34" t="n">
+        <v>5</v>
       </c>
       <c r="E159" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F159" s="15" t="n">
         <v>6</v>
-      </c>
-      <c r="F159" s="15" t="n">
-        <v>8</v>
       </c>
       <c r="G159" s="15" t="n">
         <v>8</v>
       </c>
       <c r="H159" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="I159" s="15" t="n">
         <v>42</v>
       </c>
-      <c r="I159" s="34" t="s">
+      <c r="J159" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="32" t="s">
+      <c r="A160" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="B160" s="32" t="s">
         <v>478</v>
       </c>
-      <c r="B160" s="38" t="s">
+      <c r="C160" s="38" t="s">
         <v>702</v>
       </c>
-      <c r="C160" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="D160" s="15" t="n">
+      <c r="D160" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E160" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="E160" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="F160" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G160" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H160" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I160" s="15" t="n">
         <v>38</v>
       </c>
-      <c r="I160" s="34" t="s">
+      <c r="J160" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="32" t="s">
+      <c r="A161" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="B161" s="32" t="s">
         <v>480</v>
       </c>
-      <c r="B161" s="38" t="s">
+      <c r="C161" s="38" t="s">
         <v>710</v>
       </c>
-      <c r="C161" s="34" t="n">
+      <c r="D161" s="34" t="n">
         <v>8</v>
       </c>
-      <c r="D161" s="15" t="n">
+      <c r="E161" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="E161" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="F161" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G161" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H161" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I161" s="15" t="n">
         <v>38</v>
       </c>
-      <c r="I161" s="34" t="s">
+      <c r="J161" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="32" t="s">
+      <c r="A162" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="B162" s="32" t="s">
         <v>483</v>
       </c>
-      <c r="B162" s="38" t="s">
+      <c r="C162" s="38" t="s">
         <v>714</v>
       </c>
-      <c r="C162" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="D162" s="15" t="n">
+      <c r="D162" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E162" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="E162" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="F162" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G162" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H162" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I162" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="I162" s="34" t="s">
+      <c r="J162" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="32" t="s">
+      <c r="A163" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="B163" s="32" t="s">
         <v>486</v>
       </c>
-      <c r="B163" s="38" t="s">
+      <c r="C163" s="38" t="s">
         <v>706</v>
       </c>
-      <c r="C163" s="34" t="n">
-        <v>7</v>
-      </c>
-      <c r="D163" s="15" t="n">
+      <c r="D163" s="34" t="n">
+        <v>7</v>
+      </c>
+      <c r="E163" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="E163" s="15" t="n">
+      <c r="F163" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="F163" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="G163" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H163" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="H163" s="15" t="n">
+      <c r="I163" s="15" t="n">
         <v>38</v>
       </c>
-      <c r="I163" s="34" t="s">
+      <c r="J163" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="32" t="s">
+      <c r="A164" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="B164" s="32" t="s">
         <v>489</v>
       </c>
-      <c r="B164" s="38" t="s">
+      <c r="C164" s="38" t="s">
         <v>704</v>
       </c>
-      <c r="C164" s="34" t="n">
-        <v>7</v>
-      </c>
-      <c r="D164" s="15" t="n">
+      <c r="D164" s="34" t="n">
         <v>7</v>
       </c>
       <c r="E164" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F164" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="F164" s="15" t="n">
-        <v>5</v>
-      </c>
       <c r="G164" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H164" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I164" s="15" t="n">
         <v>38</v>
       </c>
-      <c r="I164" s="34" t="s">
+      <c r="J164" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="32" t="s">
+      <c r="A165" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="B165" s="32" t="s">
         <v>492</v>
       </c>
-      <c r="B165" s="39" t="s">
+      <c r="C165" s="39" t="s">
         <v>710</v>
       </c>
-      <c r="C165" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="D165" s="15" t="n">
-        <v>7</v>
+      <c r="D165" s="34" t="n">
+        <v>5</v>
       </c>
       <c r="E165" s="15" t="n">
         <v>7</v>
       </c>
       <c r="F165" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G165" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H165" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I165" s="15" t="n">
         <v>36</v>
       </c>
-      <c r="I165" s="34" t="s">
+      <c r="J165" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="32" t="s">
+      <c r="A166" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="B166" s="32" t="s">
         <v>494</v>
       </c>
-      <c r="B166" s="39" t="s">
+      <c r="C166" s="39" t="s">
         <v>709</v>
       </c>
-      <c r="C166" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="D166" s="15" t="n">
-        <v>7</v>
+      <c r="D166" s="34" t="n">
+        <v>5</v>
       </c>
       <c r="E166" s="15" t="n">
         <v>7</v>
       </c>
       <c r="F166" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G166" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H166" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I166" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="I166" s="34" t="s">
+      <c r="J166" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="32" t="s">
+      <c r="A167" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="B167" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="B167" s="38" t="s">
+      <c r="C167" s="38" t="s">
         <v>714</v>
       </c>
-      <c r="C167" s="34" t="n">
+      <c r="D167" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="D167" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="E167" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F167" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="F167" s="15" t="n">
+      <c r="G167" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="G167" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="H167" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="I167" s="15" t="n">
         <v>41</v>
       </c>
-      <c r="I167" s="34" t="s">
+      <c r="J167" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="32" t="s">
+      <c r="A168" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B168" s="32" t="s">
         <v>500</v>
       </c>
-      <c r="B168" s="39" t="s">
+      <c r="C168" s="39" t="s">
         <v>714</v>
       </c>
-      <c r="C168" s="34" t="n">
+      <c r="D168" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="D168" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="E168" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F168" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="F168" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="G168" s="15" t="n">
         <v>7</v>
       </c>
       <c r="H168" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="I168" s="15" t="n">
         <v>38</v>
       </c>
-      <c r="I168" s="34" t="s">
+      <c r="J168" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="32" t="s">
+      <c r="A169" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="B169" s="32" t="s">
         <v>502</v>
       </c>
-      <c r="B169" s="38" t="s">
+      <c r="C169" s="38" t="s">
         <v>713</v>
       </c>
-      <c r="C169" s="34" t="n">
-        <v>8</v>
-      </c>
-      <c r="D169" s="15" t="n">
+      <c r="D169" s="34" t="n">
         <v>8</v>
       </c>
       <c r="E169" s="15" t="n">
         <v>8</v>
       </c>
       <c r="F169" s="15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G169" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H169" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="H169" s="15" t="n">
+      <c r="I169" s="15" t="n">
         <v>42</v>
       </c>
-      <c r="I169" s="34" t="s">
+      <c r="J169" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="32" t="s">
+      <c r="A170" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="B170" s="32" t="s">
         <v>504</v>
       </c>
-      <c r="B170" s="38" t="s">
+      <c r="C170" s="38" t="s">
         <v>697</v>
       </c>
-      <c r="C170" s="34" t="n">
+      <c r="D170" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="D170" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="E170" s="15" t="n">
         <v>7</v>
       </c>
       <c r="F170" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G170" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H170" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I170" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="I170" s="34" t="s">
+      <c r="J170" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="32" t="s">
+      <c r="A171" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="B171" s="32" t="s">
         <v>506</v>
       </c>
-      <c r="B171" s="39" t="s">
+      <c r="C171" s="39" t="s">
         <v>705</v>
       </c>
-      <c r="C171" s="34" t="n">
+      <c r="D171" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="D171" s="15" t="n">
-        <v>5</v>
-      </c>
       <c r="E171" s="15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F171" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G171" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H171" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I171" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="I171" s="34" t="s">
+      <c r="J171" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="32" t="s">
+      <c r="A172" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="B172" s="32" t="s">
         <v>508</v>
       </c>
-      <c r="B172" s="38" t="s">
+      <c r="C172" s="38" t="s">
         <v>699</v>
       </c>
-      <c r="C172" s="34" t="n">
+      <c r="D172" s="34" t="n">
         <v>8</v>
       </c>
-      <c r="D172" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="E172" s="15" t="n">
         <v>7</v>
       </c>
       <c r="F172" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G172" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H172" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I172" s="15" t="n">
         <v>38</v>
       </c>
-      <c r="I172" s="34" t="s">
+      <c r="J172" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="32" t="s">
+      <c r="A173" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="B173" s="32" t="s">
         <v>511</v>
       </c>
-      <c r="B173" s="39" t="s">
+      <c r="C173" s="39" t="s">
         <v>704</v>
       </c>
-      <c r="C173" s="34" t="n">
+      <c r="D173" s="34" t="n">
         <v>6</v>
-      </c>
-      <c r="D173" s="15" t="n">
-        <v>8</v>
       </c>
       <c r="E173" s="15" t="n">
         <v>8</v>
       </c>
       <c r="F173" s="15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G173" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H173" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I173" s="15" t="n">
         <v>37</v>
       </c>
-      <c r="I173" s="34" t="s">
+      <c r="J173" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="32" t="s">
+      <c r="A174" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B174" s="32" t="s">
         <v>513</v>
       </c>
-      <c r="B174" s="39" t="s">
+      <c r="C174" s="39" t="s">
         <v>699</v>
       </c>
-      <c r="C174" s="34" t="n">
+      <c r="D174" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="D174" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="E174" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F174" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="F174" s="15" t="n">
-        <v>5</v>
-      </c>
       <c r="G174" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H174" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I174" s="15" t="n">
         <v>36</v>
       </c>
-      <c r="I174" s="34" t="s">
+      <c r="J174" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="32" t="s">
+      <c r="A175" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="B175" s="32" t="s">
         <v>515</v>
       </c>
-      <c r="B175" s="39" t="s">
+      <c r="C175" s="39" t="s">
         <v>696</v>
       </c>
-      <c r="C175" s="34" t="n">
+      <c r="D175" s="34" t="n">
         <v>8</v>
       </c>
-      <c r="D175" s="15" t="n">
+      <c r="E175" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="E175" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="F175" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G175" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H175" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I175" s="15" t="n">
         <v>38</v>
       </c>
-      <c r="I175" s="34" t="s">
+      <c r="J175" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="32" t="s">
+      <c r="A176" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="B176" s="32" t="s">
         <v>517</v>
       </c>
-      <c r="B176" s="38" t="s">
+      <c r="C176" s="38" t="s">
         <v>698</v>
       </c>
-      <c r="C176" s="34" t="n">
+      <c r="D176" s="34" t="n">
         <v>6</v>
-      </c>
-      <c r="D176" s="15" t="n">
-        <v>8</v>
       </c>
       <c r="E176" s="15" t="n">
         <v>8</v>
       </c>
       <c r="F176" s="15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G176" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H176" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I176" s="15" t="n">
         <v>38</v>
       </c>
-      <c r="I176" s="34" t="s">
+      <c r="J176" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="32" t="s">
+      <c r="A177" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="B177" s="32" t="s">
         <v>519</v>
       </c>
-      <c r="B177" s="38" t="s">
+      <c r="C177" s="38" t="s">
         <v>702</v>
       </c>
-      <c r="C177" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="D177" s="15" t="n">
+      <c r="D177" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E177" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="E177" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="F177" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G177" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H177" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I177" s="15" t="n">
         <v>36</v>
       </c>
-      <c r="I177" s="34" t="s">
+      <c r="J177" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="32" t="s">
+      <c r="A178" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="B178" s="32" t="s">
         <v>522</v>
       </c>
-      <c r="B178" s="39" t="s">
+      <c r="C178" s="39" t="s">
         <v>708</v>
       </c>
-      <c r="C178" s="34" t="n">
+      <c r="D178" s="34" t="n">
         <v>6</v>
-      </c>
-      <c r="D178" s="15" t="n">
-        <v>8</v>
       </c>
       <c r="E178" s="15" t="n">
         <v>8</v>
       </c>
       <c r="F178" s="15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G178" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H178" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I178" s="15" t="n">
         <v>39</v>
       </c>
-      <c r="I178" s="34" t="s">
+      <c r="J178" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="32" t="s">
+      <c r="A179" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="B179" s="32" t="s">
         <v>524</v>
       </c>
-      <c r="B179" s="39" t="s">
+      <c r="C179" s="39" t="s">
         <v>706</v>
       </c>
-      <c r="C179" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="D179" s="15" t="n">
-        <v>7</v>
+      <c r="D179" s="34" t="n">
+        <v>5</v>
       </c>
       <c r="E179" s="15" t="n">
         <v>7</v>
@@ -22975,228 +23107,252 @@
         <v>7</v>
       </c>
       <c r="H179" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="I179" s="15" t="n">
         <v>39</v>
       </c>
-      <c r="I179" s="34" t="s">
+      <c r="J179" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="32" t="s">
+      <c r="A180" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="B180" s="32" t="s">
         <v>528</v>
       </c>
-      <c r="B180" s="39" t="s">
+      <c r="C180" s="39" t="s">
         <v>713</v>
       </c>
-      <c r="C180" s="34" t="n">
-        <v>8</v>
-      </c>
-      <c r="D180" s="15" t="n">
+      <c r="D180" s="34" t="n">
         <v>8</v>
       </c>
       <c r="E180" s="15" t="n">
         <v>8</v>
       </c>
       <c r="F180" s="15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G180" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H180" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I180" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="I180" s="34" t="s">
+      <c r="J180" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="32" t="s">
+      <c r="A181" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="B181" s="32" t="s">
         <v>530</v>
       </c>
-      <c r="B181" s="39" t="s">
+      <c r="C181" s="39" t="s">
         <v>697</v>
       </c>
-      <c r="C181" s="34" t="n">
+      <c r="D181" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="D181" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="E181" s="15" t="n">
         <v>7</v>
       </c>
       <c r="F181" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G181" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H181" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I181" s="15" t="n">
         <v>33</v>
       </c>
-      <c r="I181" s="34" t="s">
+      <c r="J181" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="32" t="s">
+      <c r="A182" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="B182" s="32" t="s">
         <v>532</v>
       </c>
-      <c r="B182" s="38" t="s">
+      <c r="C182" s="38" t="s">
         <v>711</v>
       </c>
-      <c r="C182" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="D182" s="15" t="n">
+      <c r="D182" s="34" t="n">
         <v>6</v>
       </c>
       <c r="E182" s="15" t="n">
         <v>6</v>
       </c>
       <c r="F182" s="15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G182" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H182" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I182" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="I182" s="34" t="s">
+      <c r="J182" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="32" t="s">
+      <c r="A183" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="B183" s="32" t="s">
         <v>535</v>
       </c>
-      <c r="B183" s="38" t="s">
+      <c r="C183" s="38" t="s">
         <v>705</v>
       </c>
-      <c r="C183" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="D183" s="15" t="n">
-        <v>7</v>
+      <c r="D183" s="34" t="n">
+        <v>5</v>
       </c>
       <c r="E183" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F183" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="F183" s="15" t="n">
-        <v>5</v>
-      </c>
       <c r="G183" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H183" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I183" s="15" t="n">
         <v>34</v>
       </c>
-      <c r="I183" s="34" t="s">
+      <c r="J183" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="32" t="s">
+      <c r="A184" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="B184" s="32" t="s">
         <v>538</v>
       </c>
-      <c r="B184" s="38" t="s">
+      <c r="C184" s="38" t="s">
         <v>709</v>
       </c>
-      <c r="C184" s="34" t="n">
+      <c r="D184" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="D184" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="E184" s="15" t="n">
         <v>7</v>
       </c>
       <c r="F184" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G184" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H184" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I184" s="15" t="n">
         <v>36</v>
       </c>
-      <c r="I184" s="34" t="s">
+      <c r="J184" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="32" t="s">
+      <c r="A185" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="B185" s="32" t="s">
         <v>541</v>
       </c>
-      <c r="B185" s="38" t="s">
+      <c r="C185" s="38" t="s">
         <v>712</v>
       </c>
-      <c r="C185" s="34" t="n">
+      <c r="D185" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="D185" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="E185" s="15" t="n">
         <v>7</v>
       </c>
       <c r="F185" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G185" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H185" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I185" s="15" t="n">
         <v>36</v>
       </c>
-      <c r="I185" s="34" t="s">
+      <c r="J185" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="32" t="s">
+      <c r="A186" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="B186" s="32" t="s">
         <v>544</v>
       </c>
-      <c r="B186" s="38" t="s">
+      <c r="C186" s="38" t="s">
         <v>705</v>
       </c>
-      <c r="C186" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="D186" s="15" t="n">
+      <c r="D186" s="34" t="n">
         <v>6</v>
       </c>
       <c r="E186" s="15" t="n">
         <v>6</v>
       </c>
       <c r="F186" s="15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G186" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H186" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I186" s="15" t="n">
         <v>33</v>
       </c>
-      <c r="I186" s="34" t="s">
+      <c r="J186" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="32" t="s">
+      <c r="A187" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="B187" s="32" t="s">
         <v>546</v>
       </c>
-      <c r="B187" s="39" t="s">
+      <c r="C187" s="39" t="s">
         <v>699</v>
       </c>
-      <c r="C187" s="34" t="n">
+      <c r="D187" s="34" t="n">
         <v>8</v>
       </c>
-      <c r="D187" s="15" t="n">
-        <v>5</v>
-      </c>
       <c r="E187" s="15" t="n">
         <v>5</v>
       </c>
@@ -23207,227 +23363,251 @@
         <v>5</v>
       </c>
       <c r="H187" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I187" s="15" t="n">
         <v>33</v>
       </c>
-      <c r="I187" s="34" t="s">
+      <c r="J187" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="32" t="s">
+      <c r="A188" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="B188" s="32" t="s">
         <v>548</v>
       </c>
-      <c r="B188" s="38" t="s">
+      <c r="C188" s="38" t="s">
         <v>699</v>
       </c>
-      <c r="C188" s="34" t="n">
+      <c r="D188" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="D188" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="E188" s="15" t="n">
         <v>7</v>
       </c>
       <c r="F188" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G188" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H188" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I188" s="15" t="n">
         <v>36</v>
       </c>
-      <c r="I188" s="34" t="s">
+      <c r="J188" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="32" t="s">
+      <c r="A189" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="B189" s="32" t="s">
         <v>550</v>
       </c>
-      <c r="B189" s="38" t="s">
+      <c r="C189" s="38" t="s">
         <v>698</v>
       </c>
-      <c r="C189" s="34" t="n">
-        <v>7</v>
-      </c>
-      <c r="D189" s="15" t="n">
-        <v>8</v>
+      <c r="D189" s="34" t="n">
+        <v>7</v>
       </c>
       <c r="E189" s="15" t="n">
         <v>8</v>
       </c>
       <c r="F189" s="15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G189" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H189" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I189" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="I189" s="34" t="s">
+      <c r="J189" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="32" t="s">
+      <c r="A190" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="B190" s="32" t="s">
         <v>553</v>
       </c>
-      <c r="B190" s="38" t="s">
+      <c r="C190" s="38" t="s">
         <v>707</v>
       </c>
-      <c r="C190" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="D190" s="15" t="n">
-        <v>7</v>
+      <c r="D190" s="34" t="n">
+        <v>5</v>
       </c>
       <c r="E190" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F190" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="F190" s="15" t="n">
-        <v>5</v>
-      </c>
       <c r="G190" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H190" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I190" s="15" t="n">
         <v>36</v>
       </c>
-      <c r="I190" s="34" t="s">
+      <c r="J190" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="32" t="s">
+      <c r="A191" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="B191" s="32" t="s">
         <v>556</v>
       </c>
-      <c r="B191" s="38" t="s">
+      <c r="C191" s="38" t="s">
         <v>696</v>
       </c>
-      <c r="C191" s="34" t="n">
-        <v>8</v>
-      </c>
-      <c r="D191" s="15" t="n">
+      <c r="D191" s="34" t="n">
         <v>8</v>
       </c>
       <c r="E191" s="15" t="n">
         <v>8</v>
       </c>
       <c r="F191" s="15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G191" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H191" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I191" s="15" t="n">
         <v>41</v>
       </c>
-      <c r="I191" s="34" t="s">
+      <c r="J191" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="32" t="s">
+      <c r="A192" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B192" s="32" t="s">
         <v>558</v>
       </c>
-      <c r="B192" s="39" t="s">
+      <c r="C192" s="39" t="s">
         <v>702</v>
       </c>
-      <c r="C192" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="D192" s="15" t="n">
-        <v>7</v>
+      <c r="D192" s="34" t="n">
+        <v>5</v>
       </c>
       <c r="E192" s="15" t="n">
         <v>7</v>
       </c>
       <c r="F192" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G192" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H192" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I192" s="15" t="n">
         <v>36</v>
       </c>
-      <c r="I192" s="34" t="s">
+      <c r="J192" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="32" t="s">
+      <c r="A193" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="B193" s="32" t="s">
         <v>560</v>
       </c>
-      <c r="B193" s="38" t="s">
+      <c r="C193" s="38" t="s">
         <v>704</v>
       </c>
-      <c r="C193" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="D193" s="15" t="n">
+      <c r="D193" s="34" t="n">
         <v>6</v>
       </c>
       <c r="E193" s="15" t="n">
         <v>6</v>
       </c>
       <c r="F193" s="15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G193" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H193" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I193" s="15" t="n">
         <v>34</v>
       </c>
-      <c r="I193" s="34" t="s">
+      <c r="J193" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="32" t="s">
+      <c r="A194" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="B194" s="32" t="s">
         <v>562</v>
       </c>
-      <c r="B194" s="39" t="s">
+      <c r="C194" s="39" t="s">
         <v>698</v>
       </c>
-      <c r="C194" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="D194" s="15" t="n">
+      <c r="D194" s="34" t="n">
         <v>6</v>
       </c>
       <c r="E194" s="15" t="n">
         <v>6</v>
       </c>
       <c r="F194" s="15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G194" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H194" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I194" s="15" t="n">
         <v>33</v>
       </c>
-      <c r="I194" s="34" t="s">
+      <c r="J194" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="32" t="s">
+      <c r="A195" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="B195" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="B195" s="39" t="s">
+      <c r="C195" s="39" t="s">
         <v>707</v>
       </c>
-      <c r="C195" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="D195" s="15" t="n">
-        <v>7</v>
+      <c r="D195" s="34" t="n">
+        <v>5</v>
       </c>
       <c r="E195" s="15" t="n">
         <v>7</v>
@@ -23436,41 +23616,47 @@
         <v>7</v>
       </c>
       <c r="G195" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H195" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I195" s="15" t="n">
         <v>37</v>
       </c>
-      <c r="I195" s="34" t="s">
+      <c r="J195" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="32" t="s">
+      <c r="A196" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="B196" s="32" t="s">
         <v>567</v>
       </c>
-      <c r="B196" s="39" t="s">
+      <c r="C196" s="39" t="s">
         <v>710</v>
       </c>
-      <c r="C196" s="34" t="n">
+      <c r="D196" s="34" t="n">
         <v>8</v>
       </c>
-      <c r="D196" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="E196" s="15" t="n">
         <v>7</v>
       </c>
       <c r="F196" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G196" s="15" t="n">
         <v>5</v>
       </c>
       <c r="H196" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I196" s="15" t="n">
         <v>38</v>
       </c>
-      <c r="I196" s="34" t="s">
+      <c r="J196" s="34" t="s">
         <v>411</v>
       </c>
     </row>
@@ -23484,16 +23670,17 @@
       <c r="G197" s="17"/>
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
+      <c r="J197" s="17"/>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="32" t="s">
+      <c r="A198" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="B198" s="32" t="s">
         <v>569</v>
       </c>
-      <c r="B198" s="15" t="s">
+      <c r="C198" s="15" t="s">
         <v>715</v>
-      </c>
-      <c r="C198" s="15" t="n">
-        <v>9</v>
       </c>
       <c r="D198" s="15" t="n">
         <v>9</v>
@@ -23508,79 +23695,88 @@
         <v>9</v>
       </c>
       <c r="H198" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="I198" s="15" t="n">
         <v>45</v>
       </c>
-      <c r="I198" s="34" t="s">
+      <c r="J198" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="32" t="s">
+      <c r="A199" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B199" s="32" t="s">
         <v>577</v>
       </c>
-      <c r="B199" s="15" t="s">
+      <c r="C199" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="C199" s="15" t="n">
-        <v>5</v>
-      </c>
       <c r="D199" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E199" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="E199" s="15" t="n">
-        <v>5</v>
-      </c>
       <c r="F199" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G199" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="G199" s="15" t="n">
-        <v>5</v>
-      </c>
       <c r="H199" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I199" s="15" t="n">
         <v>23</v>
       </c>
-      <c r="I199" s="34" t="s">
+      <c r="J199" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="32" t="s">
+      <c r="A200" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="B200" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="B200" s="15" t="s">
+      <c r="C200" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="C200" s="15" t="n">
+      <c r="D200" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D200" s="15" t="n">
-        <v>5</v>
-      </c>
       <c r="E200" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F200" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="F200" s="15" t="n">
-        <v>5</v>
-      </c>
       <c r="G200" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H200" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="H200" s="15" t="n">
+      <c r="I200" s="15" t="n">
         <v>22</v>
       </c>
-      <c r="I200" s="34" t="s">
+      <c r="J200" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="32" t="s">
+      <c r="A201" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B201" s="32" t="s">
         <v>581</v>
       </c>
-      <c r="B201" s="15" t="s">
+      <c r="C201" s="15" t="s">
         <v>715</v>
-      </c>
-      <c r="C201" s="15" t="n">
-        <v>4</v>
       </c>
       <c r="D201" s="15" t="n">
         <v>4</v>
@@ -23595,270 +23791,300 @@
         <v>4</v>
       </c>
       <c r="H201" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I201" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="I201" s="34" t="s">
+      <c r="J201" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="32" t="s">
+      <c r="A202" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="B202" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="B202" s="15" t="s">
+      <c r="C202" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="C202" s="15" t="n">
-        <v>5</v>
-      </c>
       <c r="D202" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E202" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="E202" s="15" t="n">
-        <v>5</v>
-      </c>
       <c r="F202" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G202" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="G202" s="15" t="n">
-        <v>5</v>
-      </c>
       <c r="H202" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I202" s="15" t="n">
         <v>23</v>
       </c>
-      <c r="I202" s="34" t="s">
+      <c r="J202" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="32" t="s">
+      <c r="A203" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="B203" s="32" t="s">
         <v>586</v>
       </c>
-      <c r="B203" s="15" t="s">
+      <c r="C203" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="C203" s="15" t="n">
+      <c r="D203" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="D203" s="15" t="n">
+      <c r="E203" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="E203" s="15" t="n">
+      <c r="F203" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="F203" s="15" t="n">
+      <c r="G203" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="G203" s="15" t="n">
+      <c r="H203" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="H203" s="15" t="n">
+      <c r="I203" s="15" t="n">
         <v>24</v>
       </c>
-      <c r="I203" s="34" t="s">
+      <c r="J203" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="32" t="s">
+      <c r="A204" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="B204" s="32" t="s">
         <v>588</v>
       </c>
-      <c r="B204" s="15" t="s">
+      <c r="C204" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="C204" s="15" t="n">
+      <c r="D204" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="D204" s="15" t="n">
+      <c r="E204" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="E204" s="15" t="n">
+      <c r="F204" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="F204" s="15" t="n">
+      <c r="G204" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="G204" s="15" t="n">
+      <c r="H204" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="H204" s="15" t="n">
+      <c r="I204" s="15" t="n">
         <v>13</v>
       </c>
-      <c r="I204" s="34" t="s">
+      <c r="J204" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="32" t="s">
+      <c r="A205" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="B205" s="32" t="s">
         <v>591</v>
       </c>
-      <c r="B205" s="15" t="s">
+      <c r="C205" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="C205" s="15" t="n">
+      <c r="D205" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="D205" s="15" t="n">
+      <c r="E205" s="15" t="n">
         <v>8.5</v>
       </c>
-      <c r="E205" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="F205" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="G205" s="15" t="n">
         <v>8.5</v>
       </c>
-      <c r="G205" s="15" t="n">
+      <c r="H205" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="H205" s="15" t="n">
+      <c r="I205" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="I205" s="34" t="s">
+      <c r="J205" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="32" t="s">
+      <c r="A206" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="B206" s="32" t="s">
         <v>594</v>
       </c>
-      <c r="B206" s="15" t="s">
+      <c r="C206" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="C206" s="15" t="n">
+      <c r="D206" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="D206" s="15" t="n">
+      <c r="E206" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="E206" s="15" t="n">
+      <c r="F206" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="F206" s="15" t="n">
+      <c r="G206" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="G206" s="15" t="n">
+      <c r="H206" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="H206" s="15" t="n">
+      <c r="I206" s="15" t="n">
         <v>21</v>
       </c>
-      <c r="I206" s="34" t="s">
+      <c r="J206" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="32" t="s">
+      <c r="A207" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="B207" s="32" t="s">
         <v>596</v>
       </c>
-      <c r="B207" s="15" t="s">
+      <c r="C207" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="C207" s="15" t="n">
+      <c r="D207" s="15" t="n">
         <v>8.5</v>
       </c>
-      <c r="D207" s="15" t="n">
+      <c r="E207" s="15" t="n">
         <v>9</v>
-      </c>
-      <c r="E207" s="15" t="n">
-        <v>8</v>
       </c>
       <c r="F207" s="15" t="n">
         <v>8</v>
       </c>
       <c r="G207" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="H207" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="H207" s="15" t="n">
+      <c r="I207" s="15" t="n">
         <v>42.5</v>
       </c>
-      <c r="I207" s="34" t="s">
+      <c r="J207" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="32" t="s">
+      <c r="A208" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="B208" s="32" t="s">
         <v>598</v>
       </c>
-      <c r="B208" s="15" t="s">
+      <c r="C208" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="C208" s="15" t="n">
+      <c r="D208" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="D208" s="15" t="n">
+      <c r="E208" s="15" t="n">
         <v>8.5</v>
       </c>
-      <c r="E208" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="F208" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="G208" s="15" t="n">
         <v>8.5</v>
       </c>
-      <c r="G208" s="15" t="n">
-        <v>7</v>
-      </c>
       <c r="H208" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="I208" s="15" t="n">
         <v>39</v>
       </c>
-      <c r="I208" s="34" t="s">
+      <c r="J208" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="32" t="s">
+      <c r="A209" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="B209" s="32" t="s">
         <v>601</v>
       </c>
-      <c r="B209" s="15" t="s">
+      <c r="C209" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="C209" s="15" t="n">
+      <c r="D209" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="D209" s="15" t="n">
+      <c r="E209" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="E209" s="15" t="n">
+      <c r="F209" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="F209" s="15" t="n">
+      <c r="G209" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="G209" s="15" t="n">
+      <c r="H209" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="H209" s="15" t="n">
+      <c r="I209" s="15" t="n">
         <v>12</v>
       </c>
-      <c r="I209" s="34" t="s">
+      <c r="J209" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="32" t="s">
+      <c r="A210" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="B210" s="32" t="s">
         <v>603</v>
       </c>
-      <c r="B210" s="15" t="s">
+      <c r="C210" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="C210" s="15" t="n">
+      <c r="D210" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D210" s="15" t="n">
-        <v>5</v>
-      </c>
       <c r="E210" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F210" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="F210" s="15" t="n">
-        <v>5</v>
-      </c>
       <c r="G210" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H210" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="H210" s="15" t="n">
+      <c r="I210" s="15" t="n">
         <v>22</v>
       </c>
-      <c r="I210" s="34" t="s">
+      <c r="J210" s="34" t="s">
         <v>25</v>
       </c>
     </row>
@@ -23872,190 +24098,209 @@
       <c r="G211" s="17"/>
       <c r="H211" s="17"/>
       <c r="I211" s="17"/>
+      <c r="J211" s="17"/>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="32" t="s">
+      <c r="A212" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="B212" s="32" t="s">
         <v>606</v>
       </c>
-      <c r="B212" s="38" t="s">
+      <c r="C212" s="38" t="s">
         <v>715</v>
       </c>
-      <c r="C212" s="38" t="n">
-        <v>7</v>
-      </c>
       <c r="D212" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="E212" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="E212" s="38" t="n">
+      <c r="F212" s="38" t="n">
         <v>8.5</v>
       </c>
-      <c r="F212" s="38" t="n">
-        <v>7</v>
-      </c>
       <c r="G212" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="H212" s="15" t="n">
+      <c r="H212" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="I212" s="15" t="n">
         <v>37.5</v>
       </c>
-      <c r="I212" s="34" t="s">
+      <c r="J212" s="34" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="32" t="s">
+      <c r="A213" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="B213" s="32" t="s">
         <v>612</v>
       </c>
-      <c r="B213" s="39" t="s">
+      <c r="C213" s="39" t="s">
         <v>715</v>
       </c>
-      <c r="C213" s="39" t="n">
+      <c r="D213" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="D213" s="39" t="n">
-        <v>5</v>
-      </c>
       <c r="E213" s="39" t="n">
+        <v>5</v>
+      </c>
+      <c r="F213" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="F213" s="39" t="n">
-        <v>5</v>
-      </c>
       <c r="G213" s="39" t="n">
+        <v>5</v>
+      </c>
+      <c r="H213" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="H213" s="15" t="n">
+      <c r="I213" s="15" t="n">
         <v>16</v>
       </c>
-      <c r="I213" s="34" t="s">
+      <c r="J213" s="34" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="32" t="s">
+      <c r="A214" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="B214" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="B214" s="38" t="s">
+      <c r="C214" s="38" t="s">
         <v>715</v>
       </c>
-      <c r="C214" s="38" t="n">
+      <c r="D214" s="38" t="n">
         <v>8.5</v>
       </c>
-      <c r="D214" s="38" t="n">
+      <c r="E214" s="38" t="n">
         <v>9</v>
       </c>
-      <c r="E214" s="38" t="n">
+      <c r="F214" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="F214" s="38" t="n">
+      <c r="G214" s="38" t="n">
         <v>9</v>
       </c>
-      <c r="G214" s="38" t="n">
+      <c r="H214" s="38" t="n">
         <v>8.5</v>
       </c>
-      <c r="H214" s="15" t="n">
+      <c r="I214" s="15" t="n">
         <v>43</v>
       </c>
-      <c r="I214" s="34" t="s">
+      <c r="J214" s="34" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="32" t="s">
+      <c r="A215" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="B215" s="32" t="s">
         <v>617</v>
       </c>
-      <c r="B215" s="39" t="s">
+      <c r="C215" s="39" t="s">
         <v>715</v>
       </c>
-      <c r="C215" s="39" t="n">
+      <c r="D215" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="D215" s="39" t="n">
-        <v>7</v>
-      </c>
       <c r="E215" s="39" t="n">
+        <v>7</v>
+      </c>
+      <c r="F215" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F215" s="39" t="n">
-        <v>7</v>
-      </c>
       <c r="G215" s="39" t="n">
+        <v>7</v>
+      </c>
+      <c r="H215" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="H215" s="15" t="n">
+      <c r="I215" s="15" t="n">
         <v>23</v>
       </c>
-      <c r="I215" s="34" t="s">
+      <c r="J215" s="34" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="32" t="s">
+      <c r="A216" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="B216" s="32" t="s">
         <v>619</v>
       </c>
-      <c r="B216" s="38" t="s">
+      <c r="C216" s="38" t="s">
         <v>715</v>
       </c>
-      <c r="C216" s="38" t="n">
-        <v>7</v>
-      </c>
       <c r="D216" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="E216" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="E216" s="38" t="n">
-        <v>7</v>
-      </c>
       <c r="F216" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="G216" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="G216" s="38" t="n">
-        <v>7</v>
-      </c>
-      <c r="H216" s="15" t="n">
+      <c r="H216" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="I216" s="15" t="n">
         <v>25</v>
       </c>
-      <c r="I216" s="34" t="s">
+      <c r="J216" s="34" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="32" t="s">
+      <c r="A217" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B217" s="32" t="s">
         <v>620</v>
       </c>
-      <c r="B217" s="39" t="s">
+      <c r="C217" s="39" t="s">
         <v>715</v>
       </c>
-      <c r="C217" s="39" t="n">
+      <c r="D217" s="39" t="n">
         <v>6</v>
       </c>
-      <c r="D217" s="39" t="n">
+      <c r="E217" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="E217" s="39" t="n">
+      <c r="F217" s="39" t="n">
         <v>6</v>
       </c>
-      <c r="F217" s="39" t="n">
+      <c r="G217" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="G217" s="39" t="n">
+      <c r="H217" s="39" t="n">
         <v>6</v>
       </c>
-      <c r="H217" s="15" t="n">
+      <c r="I217" s="15" t="n">
         <v>22</v>
       </c>
-      <c r="I217" s="34" t="s">
+      <c r="J217" s="34" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="32" t="s">
+      <c r="A218" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B218" s="32" t="s">
         <v>622</v>
       </c>
-      <c r="B218" s="38" t="s">
+      <c r="C218" s="38" t="s">
         <v>715</v>
-      </c>
-      <c r="C218" s="38" t="n">
-        <v>9</v>
       </c>
       <c r="D218" s="38" t="n">
         <v>9</v>
@@ -24069,54 +24314,60 @@
       <c r="G218" s="38" t="n">
         <v>9</v>
       </c>
-      <c r="H218" s="15" t="n">
+      <c r="H218" s="38" t="n">
+        <v>9</v>
+      </c>
+      <c r="I218" s="15" t="n">
         <v>45</v>
       </c>
-      <c r="I218" s="34" t="s">
+      <c r="J218" s="34" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="32" t="s">
+      <c r="A219" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="B219" s="32" t="s">
         <v>625</v>
       </c>
-      <c r="B219" s="39" t="s">
+      <c r="C219" s="39" t="s">
         <v>715</v>
       </c>
-      <c r="C219" s="39" t="n">
+      <c r="D219" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="D219" s="39" t="n">
+      <c r="E219" s="39" t="n">
         <v>6</v>
       </c>
-      <c r="E219" s="39" t="n">
+      <c r="F219" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="F219" s="39" t="n">
+      <c r="G219" s="39" t="n">
         <v>6</v>
       </c>
-      <c r="G219" s="39" t="n">
+      <c r="H219" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="H219" s="15" t="n">
+      <c r="I219" s="15" t="n">
         <v>24</v>
       </c>
-      <c r="I219" s="34" t="s">
+      <c r="J219" s="34" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="32" t="s">
+      <c r="A220" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="B220" s="32" t="s">
         <v>627</v>
       </c>
-      <c r="B220" s="38" t="s">
+      <c r="C220" s="38" t="s">
         <v>715</v>
       </c>
-      <c r="C220" s="38" t="n">
-        <v>5</v>
-      </c>
       <c r="D220" s="38" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E220" s="38" t="n">
         <v>0</v>
@@ -24127,68 +24378,77 @@
       <c r="G220" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="H220" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="I220" s="34" t="s">
+      <c r="H220" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J220" s="34" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="32" t="s">
+      <c r="A221" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="B221" s="32" t="s">
         <v>631</v>
       </c>
-      <c r="B221" s="39" t="s">
+      <c r="C221" s="39" t="s">
         <v>715</v>
       </c>
-      <c r="C221" s="39" t="n">
-        <v>5</v>
-      </c>
       <c r="D221" s="39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E221" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="E221" s="39" t="n">
-        <v>5</v>
-      </c>
       <c r="F221" s="39" t="n">
+        <v>5</v>
+      </c>
+      <c r="G221" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="G221" s="39" t="n">
-        <v>5</v>
-      </c>
-      <c r="H221" s="15" t="n">
+      <c r="H221" s="39" t="n">
+        <v>5</v>
+      </c>
+      <c r="I221" s="15" t="n">
         <v>21</v>
       </c>
-      <c r="I221" s="34" t="s">
+      <c r="J221" s="34" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="32" t="s">
+      <c r="A222" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="B222" s="32" t="s">
         <v>634</v>
       </c>
-      <c r="B222" s="38" t="s">
+      <c r="C222" s="38" t="s">
         <v>715</v>
       </c>
-      <c r="C222" s="38" t="n">
+      <c r="D222" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="D222" s="38" t="n">
+      <c r="E222" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="E222" s="38" t="n">
+      <c r="F222" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="F222" s="38" t="n">
+      <c r="G222" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="G222" s="38" t="n">
+      <c r="H222" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="H222" s="15" t="n">
+      <c r="I222" s="15" t="n">
         <v>14</v>
       </c>
-      <c r="I222" s="34" t="s">
+      <c r="J222" s="34" t="s">
         <v>114</v>
       </c>
     </row>
@@ -24202,46 +24462,50 @@
       <c r="G223" s="17"/>
       <c r="H223" s="17"/>
       <c r="I223" s="17"/>
+      <c r="J223" s="17"/>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="32" t="s">
+      <c r="A224" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="B224" s="32" t="s">
         <v>637</v>
       </c>
-      <c r="B224" s="38" t="s">
+      <c r="C224" s="38" t="s">
         <v>715</v>
       </c>
-      <c r="C224" s="38" t="n">
-        <v>7</v>
-      </c>
       <c r="D224" s="38" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E224" s="38" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F224" s="38" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G224" s="38" t="n">
-        <v>7</v>
-      </c>
-      <c r="H224" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H224" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="I224" s="15" t="n">
         <v>31</v>
       </c>
-      <c r="I224" s="34" t="s">
+      <c r="J224" s="34" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="32" t="s">
+      <c r="A225" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="B225" s="32" t="s">
         <v>642</v>
       </c>
-      <c r="B225" s="39" t="s">
+      <c r="C225" s="39" t="s">
         <v>715</v>
       </c>
-      <c r="C225" s="39" t="n">
-        <v>5</v>
-      </c>
       <c r="D225" s="39" t="n">
         <v>5</v>
       </c>
@@ -24254,139 +24518,154 @@
       <c r="G225" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="H225" s="15" t="n">
+      <c r="H225" s="39" t="n">
+        <v>5</v>
+      </c>
+      <c r="I225" s="15" t="n">
         <v>25</v>
       </c>
-      <c r="I225" s="34" t="s">
+      <c r="J225" s="34" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="32" t="s">
+      <c r="A226" s="15" t="s">
+        <v>645</v>
+      </c>
+      <c r="B226" s="32" t="s">
         <v>646</v>
       </c>
-      <c r="B226" s="38" t="s">
+      <c r="C226" s="38" t="s">
         <v>715</v>
       </c>
-      <c r="C226" s="38" t="n">
-        <v>7</v>
-      </c>
       <c r="D226" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="E226" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="E226" s="38" t="n">
-        <v>7</v>
-      </c>
       <c r="F226" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="G226" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="G226" s="38" t="n">
+      <c r="H226" s="38" t="n">
         <v>9</v>
       </c>
-      <c r="H226" s="15" t="n">
+      <c r="I226" s="15" t="n">
         <v>39</v>
       </c>
-      <c r="I226" s="34" t="s">
+      <c r="J226" s="34" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="32" t="s">
+      <c r="A227" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="B227" s="32" t="s">
         <v>650</v>
       </c>
-      <c r="B227" s="39" t="s">
+      <c r="C227" s="39" t="s">
         <v>715</v>
       </c>
-      <c r="C227" s="39" t="n">
+      <c r="D227" s="39" t="n">
         <v>6</v>
       </c>
-      <c r="D227" s="39" t="n">
-        <v>7</v>
-      </c>
       <c r="E227" s="39" t="n">
+        <v>7</v>
+      </c>
+      <c r="F227" s="39" t="n">
         <v>6</v>
       </c>
-      <c r="F227" s="39" t="n">
-        <v>7</v>
-      </c>
       <c r="G227" s="39" t="n">
+        <v>7</v>
+      </c>
+      <c r="H227" s="39" t="n">
         <v>6</v>
       </c>
-      <c r="H227" s="15" t="n">
+      <c r="I227" s="15" t="n">
         <v>32</v>
       </c>
-      <c r="I227" s="34" t="s">
+      <c r="J227" s="34" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="32" t="s">
+      <c r="A228" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="B228" s="32" t="s">
         <v>652</v>
       </c>
-      <c r="B228" s="38" t="s">
+      <c r="C228" s="38" t="s">
         <v>715</v>
       </c>
-      <c r="C228" s="38" t="n">
-        <v>7</v>
-      </c>
       <c r="D228" s="38" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E228" s="38" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F228" s="38" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G228" s="38" t="n">
-        <v>7</v>
-      </c>
-      <c r="H228" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H228" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="I228" s="15" t="n">
         <v>31</v>
       </c>
-      <c r="I228" s="34" t="s">
+      <c r="J228" s="34" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="32" t="s">
+      <c r="A229" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="B229" s="32" t="s">
         <v>655</v>
       </c>
-      <c r="B229" s="39" t="s">
+      <c r="C229" s="39" t="s">
         <v>715</v>
       </c>
-      <c r="C229" s="39" t="n">
-        <v>5</v>
-      </c>
       <c r="D229" s="39" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E229" s="39" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F229" s="39" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G229" s="39" t="n">
-        <v>5</v>
-      </c>
-      <c r="H229" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H229" s="39" t="n">
+        <v>5</v>
+      </c>
+      <c r="I229" s="15" t="n">
         <v>29</v>
       </c>
-      <c r="I229" s="34" t="s">
+      <c r="J229" s="34" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="32" t="s">
+      <c r="A230" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="B230" s="32" t="s">
         <v>657</v>
       </c>
-      <c r="B230" s="38" t="s">
+      <c r="C230" s="38" t="s">
         <v>715</v>
       </c>
-      <c r="C230" s="38" t="n">
-        <v>5</v>
-      </c>
       <c r="D230" s="38" t="n">
         <v>5</v>
       </c>
@@ -24399,213 +24678,237 @@
       <c r="G230" s="38" t="n">
         <v>5</v>
       </c>
-      <c r="H230" s="15" t="n">
+      <c r="H230" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="I230" s="15" t="n">
         <v>25</v>
       </c>
-      <c r="I230" s="34" t="s">
+      <c r="J230" s="34" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="32" t="s">
+      <c r="A231" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="B231" s="32" t="s">
         <v>660</v>
       </c>
-      <c r="B231" s="39" t="s">
+      <c r="C231" s="39" t="s">
         <v>715</v>
       </c>
-      <c r="C231" s="39" t="n">
+      <c r="D231" s="39" t="n">
         <v>8</v>
       </c>
-      <c r="D231" s="39" t="n">
-        <v>7</v>
-      </c>
       <c r="E231" s="39" t="n">
+        <v>7</v>
+      </c>
+      <c r="F231" s="39" t="n">
         <v>6</v>
       </c>
-      <c r="F231" s="39" t="n">
-        <v>7</v>
-      </c>
       <c r="G231" s="39" t="n">
+        <v>7</v>
+      </c>
+      <c r="H231" s="39" t="n">
         <v>8</v>
       </c>
-      <c r="H231" s="15" t="n">
+      <c r="I231" s="15" t="n">
         <v>36</v>
       </c>
-      <c r="I231" s="34" t="s">
+      <c r="J231" s="34" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="32" t="s">
+      <c r="A232" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="B232" s="32" t="s">
         <v>662</v>
       </c>
-      <c r="B232" s="38" t="s">
+      <c r="C232" s="38" t="s">
         <v>715</v>
       </c>
-      <c r="C232" s="38" t="n">
-        <v>7</v>
-      </c>
       <c r="D232" s="38" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E232" s="38" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F232" s="38" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G232" s="38" t="n">
-        <v>7</v>
-      </c>
-      <c r="H232" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H232" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="I232" s="15" t="n">
         <v>31</v>
       </c>
-      <c r="I232" s="34" t="s">
+      <c r="J232" s="34" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="32" t="s">
+      <c r="A233" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="B233" s="32" t="s">
         <v>666</v>
       </c>
-      <c r="B233" s="39" t="s">
+      <c r="C233" s="39" t="s">
         <v>715</v>
       </c>
-      <c r="C233" s="39" t="n">
+      <c r="D233" s="39" t="n">
         <v>6</v>
       </c>
-      <c r="D233" s="39" t="n">
-        <v>5</v>
-      </c>
       <c r="E233" s="39" t="n">
+        <v>5</v>
+      </c>
+      <c r="F233" s="39" t="n">
         <v>6</v>
       </c>
-      <c r="F233" s="39" t="n">
-        <v>5</v>
-      </c>
       <c r="G233" s="39" t="n">
+        <v>5</v>
+      </c>
+      <c r="H233" s="39" t="n">
         <v>6</v>
       </c>
-      <c r="H233" s="15" t="n">
+      <c r="I233" s="15" t="n">
         <v>28</v>
       </c>
-      <c r="I233" s="34" t="s">
+      <c r="J233" s="34" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="32" t="s">
+      <c r="A234" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B234" s="32" t="s">
         <v>669</v>
       </c>
-      <c r="B234" s="38" t="s">
+      <c r="C234" s="38" t="s">
         <v>715</v>
       </c>
-      <c r="C234" s="38" t="n">
+      <c r="D234" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="D234" s="38" t="n">
+      <c r="E234" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="E234" s="38" t="n">
+      <c r="F234" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="F234" s="38" t="n">
+      <c r="G234" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="G234" s="38" t="n">
+      <c r="H234" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="H234" s="15" t="n">
+      <c r="I234" s="15" t="n">
         <v>32</v>
       </c>
-      <c r="I234" s="34" t="s">
+      <c r="J234" s="34" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="32" t="s">
+      <c r="A235" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="B235" s="32" t="s">
         <v>671</v>
       </c>
-      <c r="B235" s="39" t="s">
+      <c r="C235" s="39" t="s">
         <v>715</v>
       </c>
-      <c r="C235" s="39" t="n">
+      <c r="D235" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="D235" s="39" t="n">
+      <c r="E235" s="39" t="n">
         <v>8</v>
       </c>
-      <c r="E235" s="39" t="n">
+      <c r="F235" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="F235" s="39" t="n">
+      <c r="G235" s="39" t="n">
         <v>8</v>
       </c>
-      <c r="G235" s="39" t="n">
+      <c r="H235" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="H235" s="15" t="n">
+      <c r="I235" s="15" t="n">
         <v>28</v>
       </c>
-      <c r="I235" s="34" t="s">
+      <c r="J235" s="34" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="32" t="s">
+      <c r="A236" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="B236" s="32" t="s">
         <v>674</v>
       </c>
-      <c r="B236" s="38" t="s">
+      <c r="C236" s="38" t="s">
         <v>715</v>
       </c>
-      <c r="C236" s="38" t="n">
-        <v>5</v>
-      </c>
       <c r="D236" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E236" s="38" t="n">
         <v>6</v>
       </c>
-      <c r="E236" s="38" t="n">
-        <v>5</v>
-      </c>
       <c r="F236" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="G236" s="38" t="n">
         <v>6</v>
       </c>
-      <c r="G236" s="38" t="n">
-        <v>5</v>
-      </c>
-      <c r="H236" s="15" t="n">
+      <c r="H236" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="I236" s="15" t="n">
         <v>27</v>
       </c>
-      <c r="I236" s="34" t="s">
+      <c r="J236" s="34" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="32" t="s">
+      <c r="A237" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="B237" s="32" t="s">
         <v>675</v>
       </c>
-      <c r="B237" s="39" t="s">
+      <c r="C237" s="39" t="s">
         <v>715</v>
       </c>
-      <c r="C237" s="39" t="n">
-        <v>5</v>
-      </c>
       <c r="D237" s="39" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E237" s="39" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F237" s="39" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G237" s="39" t="n">
-        <v>5</v>
-      </c>
-      <c r="H237" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H237" s="39" t="n">
+        <v>5</v>
+      </c>
+      <c r="I237" s="15" t="n">
         <v>29</v>
       </c>
-      <c r="I237" s="34" t="s">
+      <c r="J237" s="34" t="s">
         <v>254</v>
       </c>
     </row>
